--- a/build/com/qtpselenium/xls/C suite.xlsx
+++ b/build/com/qtpselenium/xls/C suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>TCID</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -69,49 +66,13 @@
   </si>
   <si>
     <t>Dummy Data_C1_4</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_5</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_6</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_7</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_8</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_9</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_10</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_11</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_12</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_13</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_14</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_15</t>
-  </si>
-  <si>
-    <t>Dummy Data_C1_16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +132,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,21 +426,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,26 +451,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -514,14 +482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -530,104 +498,47 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
